--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -33,7 +34,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="mmmm\ d"/>
+    <numFmt numFmtId="165" formatCode="mmmm\ d"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -67,7 +68,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,28 +397,28 @@
                   <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>112.5</c:v>
+                  <c:v>107.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>112.5</c:v>
+                  <c:v>107.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>112.5</c:v>
+                  <c:v>107.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>112.5</c:v>
+                  <c:v>107.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112.5</c:v>
+                  <c:v>107.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>112.5</c:v>
+                  <c:v>107.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>112.5</c:v>
+                  <c:v>107.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>112.5</c:v>
+                  <c:v>107.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -434,11 +435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101926016"/>
-        <c:axId val="102044800"/>
+        <c:axId val="99177600"/>
+        <c:axId val="99179520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="101926016"/>
+        <c:axId val="99177600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,14 +468,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102044800"/>
+        <c:crossAx val="99179520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="102044800"/>
+        <c:axId val="99179520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -504,7 +505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101926016"/>
+        <c:crossAx val="99177600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -848,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +861,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -871,7 +872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42062</v>
       </c>
@@ -883,7 +884,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42065</v>
       </c>
@@ -896,7 +897,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42066</v>
       </c>
@@ -909,7 +910,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42067</v>
       </c>
@@ -922,7 +923,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42068</v>
       </c>
@@ -935,7 +936,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42069</v>
       </c>
@@ -944,11 +945,11 @@
         <v>129.6</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ref="C6:C19" si="1">C6</f>
+        <f t="shared" ref="C7:C19" si="1">C6</f>
         <v>112.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42072</v>
       </c>
@@ -961,7 +962,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42073</v>
       </c>
@@ -974,7 +975,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42074</v>
       </c>
@@ -987,7 +988,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42075</v>
       </c>
@@ -1000,7 +1001,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42076</v>
       </c>
@@ -1009,11 +1010,12 @@
         <v>75.599999999999994</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="1"/>
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <f>C11-5</f>
+        <v>107.5</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42079</v>
       </c>
@@ -1023,10 +1025,10 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42080</v>
       </c>
@@ -1036,10 +1038,10 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" si="1"/>
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42081</v>
       </c>
@@ -1049,10 +1051,10 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" si="1"/>
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42082</v>
       </c>
@@ -1062,7 +1064,7 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" si="1"/>
-        <v>112.5</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1075,7 +1077,7 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" si="1"/>
-        <v>112.5</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1088,7 +1090,7 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" si="1"/>
-        <v>112.5</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1100,7 +1102,7 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" si="1"/>
-        <v>112.5</v>
+        <v>107.5</v>
       </c>
     </row>
   </sheetData>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -154,62 +154,86 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>mmmm\ d</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>42062</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>42063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>42065</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>42066</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>42067</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>42068</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>42069</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>42070</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42071</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>42072</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>42073</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>42074</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>42075</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>42076</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
+                  <c:v>42077</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42078</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>42079</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
                   <c:v>42080</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>42081</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>42082</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>42083</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
+                  <c:v>42084</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42085</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>42086</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="25">
                   <c:v>42087</c:v>
                 </c:pt>
               </c:numCache>
@@ -217,62 +241,86 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>270.00000000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>259.2000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>248.40000000000012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>237.60000000000011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226.8000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>216.00000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>205.20000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>194.40000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>183.60000000000005</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>172.80000000000004</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>162.00000000000003</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>151.20000000000002</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>140.4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>129.6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="14">
                   <c:v>118.79999999999998</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
                   <c:v>107.99999999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
                   <c:v>97.199999999999989</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
                   <c:v>86.399999999999991</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="18">
                   <c:v>75.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="19">
                   <c:v>64.8</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="20">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="21">
                   <c:v>43.2</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="22">
                   <c:v>32.400000000000006</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="23">
                   <c:v>21.6</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="24">
                   <c:v>10.8</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -299,62 +347,86 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>mmmm\ d</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>42062</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>42063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>42065</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>42066</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>42067</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>42068</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>42069</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>42070</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42071</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>42072</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>42073</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>42074</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>42075</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>42076</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
+                  <c:v>42077</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42078</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>42079</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
                   <c:v>42080</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>42081</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>42082</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>42083</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
+                  <c:v>42084</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42085</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>42086</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="25">
                   <c:v>42087</c:v>
                 </c:pt>
               </c:numCache>
@@ -362,24 +434,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$19</c:f>
+              <c:f>Sheet1!$C$2:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>126</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>112.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>112.5</c:v>
@@ -397,16 +469,16 @@
                   <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>107.5</c:v>
+                  <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>107.5</c:v>
+                  <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>107.5</c:v>
+                  <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>107.5</c:v>
+                  <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>107.5</c:v>
@@ -418,6 +490,30 @@
                   <c:v>107.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>107.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -849,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,8 +973,8 @@
         <v>42062</v>
       </c>
       <c r="B2" s="1">
-        <f t="shared" ref="B2:B17" si="0">B3+10.8</f>
-        <v>183.60000000000005</v>
+        <f t="shared" ref="B2:B25" si="0">B3+10.8</f>
+        <v>270.00000000000011</v>
       </c>
       <c r="C2" s="1">
         <v>128</v>
@@ -886,102 +982,102 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
+        <v>42063</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" si="0"/>
+        <v>259.2000000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <f>C2</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>248.40000000000012</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C3</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>42065</v>
       </c>
-      <c r="B3" s="1">
-        <f t="shared" si="0"/>
-        <v>172.80000000000004</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>237.60000000000011</v>
+      </c>
+      <c r="C5" s="1">
         <f>C2-2</f>
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>42066</v>
-      </c>
-      <c r="B4" s="1">
-        <f t="shared" si="0"/>
-        <v>162.00000000000003</v>
-      </c>
-      <c r="C4" s="1">
-        <f>C3-2</f>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>42067</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>151.20000000000002</v>
-      </c>
-      <c r="C5" s="1">
-        <f>C4-124+112.5</f>
-        <v>112.5</v>
-      </c>
-    </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>42068</v>
+        <v>42066</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>140.4</v>
+        <v>226.8000000000001</v>
       </c>
       <c r="C6" s="1">
-        <f>C5</f>
-        <v>112.5</v>
+        <f>C5-2</f>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>42069</v>
+        <v>42067</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>129.6</v>
+        <v>216.00000000000009</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ref="C7:C19" si="1">C6</f>
+        <f>C6-124+112.5</f>
         <v>112.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>42072</v>
+        <v>42068</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>118.79999999999998</v>
+        <v>205.20000000000007</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="1"/>
+        <f>C7</f>
         <v>112.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>42073</v>
+        <v>42069</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>107.99999999999999</v>
+        <v>194.40000000000006</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C9:C11" si="1">C8</f>
         <v>112.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>42074</v>
+        <v>42070</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>97.199999999999989</v>
+        <v>183.60000000000005</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
@@ -990,11 +1086,11 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>42075</v>
+        <v>42071</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>86.399999999999991</v>
+        <v>172.80000000000004</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
@@ -1003,105 +1099,209 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>42076</v>
+        <v>42072</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>75.599999999999994</v>
+        <v>162.00000000000003</v>
       </c>
       <c r="C12" s="1">
-        <f>C11-5</f>
-        <v>107.5</v>
+        <f>C9</f>
+        <v>112.5</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>42079</v>
+        <v>42073</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>64.8</v>
+        <v>151.20000000000002</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="1"/>
-        <v>107.5</v>
+        <f>C12</f>
+        <v>112.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>42080</v>
+        <v>42074</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>140.4</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="1"/>
-        <v>107.5</v>
+        <f>C13</f>
+        <v>112.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>42081</v>
+        <v>42075</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>43.2</v>
+        <v>129.6</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="1"/>
-        <v>107.5</v>
+        <f>C14</f>
+        <v>112.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>42082</v>
+        <v>42076</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
-        <v>32.400000000000006</v>
+        <v>118.79999999999998</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="1"/>
+        <f>C15-5</f>
         <v>107.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>42083</v>
+        <v>42077</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>21.6</v>
+        <v>107.99999999999999</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="1"/>
+        <f>C16</f>
         <v>107.5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>42086</v>
+        <v>42078</v>
       </c>
       <c r="B18" s="1">
-        <f>B19+10.8</f>
-        <v>10.8</v>
+        <f t="shared" si="0"/>
+        <v>97.199999999999989</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="1"/>
+        <f>C17</f>
         <v>107.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
+        <v>42079</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="C19" s="1">
+        <f>C16</f>
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>42080</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="C20" s="1">
+        <f>C19</f>
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>42081</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>64.8</v>
+      </c>
+      <c r="C21" s="1">
+        <f>C20</f>
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>42082</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C22" s="1">
+        <f>C21</f>
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>42083</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>43.2</v>
+      </c>
+      <c r="C23" s="1">
+        <f>C22</f>
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>42084</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>32.400000000000006</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ref="C24:C25" si="2">C23</f>
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>42085</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>21.6</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="2"/>
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>42086</v>
+      </c>
+      <c r="B26" s="1">
+        <f>B27+10.8</f>
+        <v>10.8</v>
+      </c>
+      <c r="C26" s="1">
+        <f>C23</f>
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>42087</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B27" s="1">
         <v>0</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" si="1"/>
+      <c r="C27" s="1">
+        <f>C26</f>
         <v>107.5</v>
       </c>
     </row>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -439,82 +439,82 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>128</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>126</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>124</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112.5</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112.5</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>112.5</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>112.5</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>112.5</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>112.5</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>112.5</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>112.5</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>112.5</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>107.5</c:v>
+                  <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>107.5</c:v>
+                  <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>107.5</c:v>
+                  <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>107.5</c:v>
+                  <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>107.5</c:v>
+                  <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>107.5</c:v>
+                  <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>107.5</c:v>
+                  <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>107.5</c:v>
+                  <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>107.5</c:v>
+                  <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>107.5</c:v>
+                  <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>107.5</c:v>
+                  <c:v>93.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>107.5</c:v>
+                  <c:v>93.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -531,11 +531,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99177600"/>
-        <c:axId val="99179520"/>
+        <c:axId val="118243712"/>
+        <c:axId val="118245632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="99177600"/>
+        <c:axId val="118243712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -564,14 +564,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99179520"/>
+        <c:crossAx val="118245632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="99179520"/>
+        <c:axId val="118245632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,7 +601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99177600"/>
+        <c:crossAx val="118243712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -948,7 +948,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +977,7 @@
         <v>270.00000000000011</v>
       </c>
       <c r="C2" s="1">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -990,7 +990,7 @@
       </c>
       <c r="C3" s="1">
         <f>C2</f>
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="C4" s="1">
         <f>C3</f>
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="C5" s="1">
         <f>C2-2</f>
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="C6" s="1">
         <f>C5-2</f>
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1041,8 +1041,8 @@
         <v>216.00000000000009</v>
       </c>
       <c r="C7" s="1">
-        <f>C6-124+112.5</f>
-        <v>112.5</v>
+        <f>C6-122+112.5</f>
+        <v>98.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="C8" s="1">
         <f>C7</f>
-        <v>112.5</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1067,8 +1067,8 @@
         <v>194.40000000000006</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ref="C9:C11" si="1">C8</f>
-        <v>112.5</v>
+        <f>C8</f>
+        <v>98.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1080,8 +1080,8 @@
         <v>183.60000000000005</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="1"/>
-        <v>112.5</v>
+        <f>C9</f>
+        <v>98.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1093,8 +1093,8 @@
         <v>172.80000000000004</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="1"/>
-        <v>112.5</v>
+        <f>C10</f>
+        <v>98.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C12" s="1">
         <f>C9</f>
-        <v>112.5</v>
+        <v>98.5</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C13" s="1">
         <f>C12</f>
-        <v>112.5</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C14" s="1">
         <f>C13</f>
-        <v>112.5</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="C15" s="1">
         <f>C14</f>
-        <v>112.5</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1160,10 +1160,10 @@
       </c>
       <c r="C16" s="1">
         <f>C15-5</f>
-        <v>107.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>42077</v>
       </c>
@@ -1173,10 +1173,10 @@
       </c>
       <c r="C17" s="1">
         <f>C16</f>
-        <v>107.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42078</v>
       </c>
@@ -1186,10 +1186,14 @@
       </c>
       <c r="C18" s="1">
         <f>C17</f>
-        <v>107.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93.5</v>
+      </c>
+      <c r="D18">
+        <f>(C18-61)/(COUNT(C18:C27))</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42079</v>
       </c>
@@ -1199,10 +1203,10 @@
       </c>
       <c r="C19" s="1">
         <f>C16</f>
-        <v>107.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42080</v>
       </c>
@@ -1211,11 +1215,11 @@
         <v>75.599999999999994</v>
       </c>
       <c r="C20" s="1">
-        <f>C19</f>
-        <v>107.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C20:C25" si="1">C19</f>
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42081</v>
       </c>
@@ -1224,11 +1228,11 @@
         <v>64.8</v>
       </c>
       <c r="C21" s="1">
-        <f>C20</f>
-        <v>107.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42082</v>
       </c>
@@ -1237,11 +1241,11 @@
         <v>54</v>
       </c>
       <c r="C22" s="1">
-        <f>C21</f>
-        <v>107.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>42083</v>
       </c>
@@ -1250,11 +1254,11 @@
         <v>43.2</v>
       </c>
       <c r="C23" s="1">
-        <f>C22</f>
-        <v>107.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42084</v>
       </c>
@@ -1263,11 +1267,11 @@
         <v>32.400000000000006</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ref="C24:C25" si="2">C23</f>
-        <v>107.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42085</v>
       </c>
@@ -1276,11 +1280,11 @@
         <v>21.6</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="2"/>
-        <v>107.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>42086</v>
       </c>
@@ -1290,10 +1294,10 @@
       </c>
       <c r="C26" s="1">
         <f>C23</f>
-        <v>107.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42087</v>
       </c>
@@ -1302,7 +1306,7 @@
       </c>
       <c r="C27" s="1">
         <f>C26</f>
-        <v>107.5</v>
+        <v>93.5</v>
       </c>
     </row>
   </sheetData>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -439,82 +439,82 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>112</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>112</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.5</c:v>
+                  <c:v>84.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.5</c:v>
+                  <c:v>84.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.5</c:v>
+                  <c:v>84.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>98.5</c:v>
+                  <c:v>84.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>98.5</c:v>
+                  <c:v>84.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>98.5</c:v>
+                  <c:v>84.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>98.5</c:v>
+                  <c:v>84.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>98.5</c:v>
+                  <c:v>84.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>98.5</c:v>
+                  <c:v>84.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>93.5</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>93.5</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>93.5</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>93.5</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>93.5</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>93.5</c:v>
+                  <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>93.5</c:v>
+                  <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>93.5</c:v>
+                  <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>93.5</c:v>
+                  <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>93.5</c:v>
+                  <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>93.5</c:v>
+                  <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>93.5</c:v>
+                  <c:v>69.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,7 +948,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +977,7 @@
         <v>270.00000000000011</v>
       </c>
       <c r="C2" s="1">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -990,7 +990,7 @@
       </c>
       <c r="C3" s="1">
         <f>C2</f>
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="C4" s="1">
         <f>C3</f>
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="C5" s="1">
         <f>C2-2</f>
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="C6" s="1">
         <f>C5-2</f>
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1041,8 +1041,8 @@
         <v>216.00000000000009</v>
       </c>
       <c r="C7" s="1">
-        <f>C6-122+112.5</f>
-        <v>98.5</v>
+        <f>C6-120+112.5</f>
+        <v>84.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="C8" s="1">
         <f>C7</f>
-        <v>98.5</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="C9" s="1">
         <f>C8</f>
-        <v>98.5</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="C10" s="1">
         <f>C9</f>
-        <v>98.5</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C11" s="1">
         <f>C10</f>
-        <v>98.5</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C12" s="1">
         <f>C9</f>
-        <v>98.5</v>
+        <v>84.5</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C13" s="1">
         <f>C12</f>
-        <v>98.5</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C14" s="1">
         <f>C13</f>
-        <v>98.5</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="C15" s="1">
         <f>C14</f>
-        <v>98.5</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1160,10 +1160,10 @@
       </c>
       <c r="C16" s="1">
         <f>C15-5</f>
-        <v>93.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>42077</v>
       </c>
@@ -1173,10 +1173,10 @@
       </c>
       <c r="C17" s="1">
         <f>C16</f>
-        <v>93.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42078</v>
       </c>
@@ -1186,14 +1186,10 @@
       </c>
       <c r="C18" s="1">
         <f>C17</f>
-        <v>93.5</v>
-      </c>
-      <c r="D18">
-        <f>(C18-61)/(COUNT(C18:C27))</f>
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42079</v>
       </c>
@@ -1203,10 +1199,10 @@
       </c>
       <c r="C19" s="1">
         <f>C16</f>
-        <v>93.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42080</v>
       </c>
@@ -1216,10 +1212,10 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" ref="C20:C25" si="1">C19</f>
-        <v>93.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42081</v>
       </c>
@@ -1228,11 +1224,11 @@
         <v>64.8</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="1"/>
-        <v>93.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C20-10</f>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42082</v>
       </c>
@@ -1242,10 +1238,10 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
-        <v>93.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>42083</v>
       </c>
@@ -1255,10 +1251,10 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
-        <v>93.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42084</v>
       </c>
@@ -1268,10 +1264,10 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
-        <v>93.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42085</v>
       </c>
@@ -1281,10 +1277,10 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
-        <v>93.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>42086</v>
       </c>
@@ -1294,10 +1290,10 @@
       </c>
       <c r="C26" s="1">
         <f>C23</f>
-        <v>93.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42087</v>
       </c>
@@ -1306,7 +1302,7 @@
       </c>
       <c r="C27" s="1">
         <f>C26</f>
-        <v>93.5</v>
+        <v>69.5</v>
       </c>
     </row>
   </sheetData>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -154,10 +154,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>mmmm\ d</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>42062</c:v>
                 </c:pt>
@@ -235,92 +235,182 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>42087</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42096</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42097</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42098</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42099</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42101</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$27</c:f>
+              <c:f>Sheet1!$B$2:$B$42</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
+                  <c:v>432.00000000000028</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>421.20000000000027</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>410.40000000000026</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>399.60000000000025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>388.80000000000024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>378.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>367.20000000000022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>356.4000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>345.60000000000019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>334.80000000000018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>324.00000000000017</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>313.20000000000016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>302.40000000000015</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>291.60000000000014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280.80000000000013</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>270.00000000000011</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="16">
                   <c:v>259.2000000000001</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="17">
                   <c:v>248.40000000000012</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="18">
                   <c:v>237.60000000000011</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="19">
                   <c:v>226.8000000000001</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="20">
                   <c:v>216.00000000000009</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="21">
                   <c:v>205.20000000000007</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="22">
                   <c:v>194.40000000000006</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="23">
                   <c:v>183.60000000000005</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="24">
                   <c:v>172.80000000000004</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="25">
                   <c:v>162.00000000000003</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="26">
                   <c:v>151.20000000000002</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="27">
                   <c:v>140.4</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="28">
                   <c:v>129.6</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="29">
                   <c:v>118.79999999999998</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="30">
                   <c:v>107.99999999999999</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="31">
                   <c:v>97.199999999999989</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="32">
                   <c:v>86.399999999999991</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="33">
                   <c:v>75.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="34">
                   <c:v>64.8</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="35">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="36">
                   <c:v>43.2</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="37">
                   <c:v>32.400000000000006</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="38">
                   <c:v>21.6</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="39">
                   <c:v>10.8</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -347,10 +437,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>mmmm\ d</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>42062</c:v>
                 </c:pt>
@@ -428,16 +518,61 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>42087</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42094</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42096</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42097</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42098</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42099</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42101</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$27</c:f>
+              <c:f>Sheet1!$C$2:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>96</c:v>
                 </c:pt>
@@ -514,6 +649,51 @@
                   <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>69.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -597,7 +777,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -945,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,9 +1152,9 @@
       <c r="A2" s="2">
         <v>42062</v>
       </c>
-      <c r="B2" s="1">
-        <f t="shared" ref="B2:B25" si="0">B3+10.8</f>
-        <v>270.00000000000011</v>
+      <c r="B2">
+        <f t="shared" ref="B2:B40" si="0">B3+10.8</f>
+        <v>432.00000000000028</v>
       </c>
       <c r="C2" s="1">
         <v>96</v>
@@ -984,9 +1164,9 @@
       <c r="A3" s="2">
         <v>42063</v>
       </c>
-      <c r="B3" s="1">
-        <f t="shared" si="0"/>
-        <v>259.2000000000001</v>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>421.20000000000027</v>
       </c>
       <c r="C3" s="1">
         <f>C2</f>
@@ -997,9 +1177,9 @@
       <c r="A4" s="2">
         <v>42064</v>
       </c>
-      <c r="B4" s="1">
-        <f t="shared" si="0"/>
-        <v>248.40000000000012</v>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>410.40000000000026</v>
       </c>
       <c r="C4" s="1">
         <f>C3</f>
@@ -1010,9 +1190,9 @@
       <c r="A5" s="2">
         <v>42065</v>
       </c>
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>237.60000000000011</v>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>399.60000000000025</v>
       </c>
       <c r="C5" s="1">
         <f>C2-2</f>
@@ -1023,9 +1203,9 @@
       <c r="A6" s="2">
         <v>42066</v>
       </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>226.8000000000001</v>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>388.80000000000024</v>
       </c>
       <c r="C6" s="1">
         <f>C5-2</f>
@@ -1036,9 +1216,9 @@
       <c r="A7" s="2">
         <v>42067</v>
       </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>216.00000000000009</v>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>378.00000000000023</v>
       </c>
       <c r="C7" s="1">
         <f>C6-120+112.5</f>
@@ -1049,9 +1229,9 @@
       <c r="A8" s="2">
         <v>42068</v>
       </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>205.20000000000007</v>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>367.20000000000022</v>
       </c>
       <c r="C8" s="1">
         <f>C7</f>
@@ -1062,9 +1242,9 @@
       <c r="A9" s="2">
         <v>42069</v>
       </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>194.40000000000006</v>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>356.4000000000002</v>
       </c>
       <c r="C9" s="1">
         <f>C8</f>
@@ -1075,9 +1255,9 @@
       <c r="A10" s="2">
         <v>42070</v>
       </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>183.60000000000005</v>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>345.60000000000019</v>
       </c>
       <c r="C10" s="1">
         <f>C9</f>
@@ -1088,9 +1268,9 @@
       <c r="A11" s="2">
         <v>42071</v>
       </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>172.80000000000004</v>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>334.80000000000018</v>
       </c>
       <c r="C11" s="1">
         <f>C10</f>
@@ -1101,9 +1281,9 @@
       <c r="A12" s="2">
         <v>42072</v>
       </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>162.00000000000003</v>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>324.00000000000017</v>
       </c>
       <c r="C12" s="1">
         <f>C9</f>
@@ -1115,9 +1295,9 @@
       <c r="A13" s="2">
         <v>42073</v>
       </c>
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>151.20000000000002</v>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>313.20000000000016</v>
       </c>
       <c r="C13" s="1">
         <f>C12</f>
@@ -1128,9 +1308,9 @@
       <c r="A14" s="2">
         <v>42074</v>
       </c>
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>140.4</v>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>302.40000000000015</v>
       </c>
       <c r="C14" s="1">
         <f>C13</f>
@@ -1141,9 +1321,9 @@
       <c r="A15" s="2">
         <v>42075</v>
       </c>
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>129.6</v>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>291.60000000000014</v>
       </c>
       <c r="C15" s="1">
         <f>C14</f>
@@ -1154,9 +1334,9 @@
       <c r="A16" s="2">
         <v>42076</v>
       </c>
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>118.79999999999998</v>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>280.80000000000013</v>
       </c>
       <c r="C16" s="1">
         <f>C15-5</f>
@@ -1167,9 +1347,9 @@
       <c r="A17" s="2">
         <v>42077</v>
       </c>
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>107.99999999999999</v>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>270.00000000000011</v>
       </c>
       <c r="C17" s="1">
         <f>C16</f>
@@ -1180,9 +1360,9 @@
       <c r="A18" s="2">
         <v>42078</v>
       </c>
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>97.199999999999989</v>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>259.2000000000001</v>
       </c>
       <c r="C18" s="1">
         <f>C17</f>
@@ -1193,9 +1373,9 @@
       <c r="A19" s="2">
         <v>42079</v>
       </c>
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>86.399999999999991</v>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>248.40000000000012</v>
       </c>
       <c r="C19" s="1">
         <f>C16</f>
@@ -1206,9 +1386,9 @@
       <c r="A20" s="2">
         <v>42080</v>
       </c>
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>75.599999999999994</v>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>237.60000000000011</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ref="C20:C25" si="1">C19</f>
@@ -1219,9 +1399,9 @@
       <c r="A21" s="2">
         <v>42081</v>
       </c>
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>64.8</v>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>226.8000000000001</v>
       </c>
       <c r="C21" s="1">
         <f>C20-10</f>
@@ -1232,9 +1412,9 @@
       <c r="A22" s="2">
         <v>42082</v>
       </c>
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>216.00000000000009</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
@@ -1245,9 +1425,9 @@
       <c r="A23" s="2">
         <v>42083</v>
       </c>
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>43.2</v>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>205.20000000000007</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
@@ -1258,9 +1438,9 @@
       <c r="A24" s="2">
         <v>42084</v>
       </c>
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>32.400000000000006</v>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>194.40000000000006</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
@@ -1271,9 +1451,9 @@
       <c r="A25" s="2">
         <v>42085</v>
       </c>
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>21.6</v>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>183.60000000000005</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
@@ -1284,9 +1464,9 @@
       <c r="A26" s="2">
         <v>42086</v>
       </c>
-      <c r="B26" s="1">
-        <f>B27+10.8</f>
-        <v>10.8</v>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>172.80000000000004</v>
       </c>
       <c r="C26" s="1">
         <f>C23</f>
@@ -1297,11 +1477,206 @@
       <c r="A27" s="2">
         <v>42087</v>
       </c>
-      <c r="B27" s="1">
-        <v>0</v>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>162.00000000000003</v>
       </c>
       <c r="C27" s="1">
         <f>C26</f>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>42088</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>151.20000000000002</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ref="C28:C42" si="2">C27</f>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>42089</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>140.4</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="2"/>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>42090</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>129.6</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="2"/>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>42091</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>118.79999999999998</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="2"/>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>42092</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>107.99999999999999</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="2"/>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>42093</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>97.199999999999989</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="2"/>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>42094</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="2"/>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="2"/>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>42096</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>64.8</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="2"/>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>42097</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="2"/>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>42098</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>43.2</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="2"/>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>42099</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>32.400000000000006</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="2"/>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>42100</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>21.6</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="2"/>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>42101</v>
+      </c>
+      <c r="B41">
+        <f>B42+10.8</f>
+        <v>10.8</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="2"/>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>42102</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="2"/>
         <v>69.5</v>
       </c>
     </row>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -291,124 +291,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>432.00000000000028</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>421.20000000000027</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>410.40000000000026</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>399.60000000000025</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>388.80000000000024</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>378.00000000000023</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>367.20000000000022</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>356.4000000000002</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>345.60000000000019</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>334.80000000000018</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>324.00000000000017</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>313.20000000000016</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>302.40000000000015</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>291.60000000000014</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>280.80000000000013</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>270.00000000000011</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>259.2000000000001</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>248.40000000000012</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>237.60000000000011</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>226.8000000000001</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>216.00000000000009</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>205.20000000000007</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>194.40000000000006</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>183.60000000000005</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>172.80000000000004</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>162.00000000000003</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>151.20000000000002</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>140.4</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>129.6</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>118.79999999999998</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>107.99999999999999</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>97.199999999999989</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>86.399999999999991</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>75.599999999999994</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>64.8</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>54</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43.2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>32.400000000000006</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>21.6</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10.8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="B41" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,8 +1153,8 @@
         <v>42062</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B40" si="0">B3+10.8</f>
-        <v>432.00000000000028</v>
+        <f t="shared" ref="B2:B40" si="0">B3+3</f>
+        <v>120</v>
       </c>
       <c r="C2" s="1">
         <v>96</v>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>421.20000000000027</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1">
         <f>C2</f>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>410.40000000000026</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1">
         <f>C3</f>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>399.60000000000025</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1">
         <f>C2-2</f>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>388.80000000000024</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1">
         <f>C5-2</f>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>378.00000000000023</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1">
         <f>C6-120+112.5</f>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>367.20000000000022</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1">
         <f>C7</f>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>356.4000000000002</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1">
         <f>C8</f>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>345.60000000000019</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1">
         <f>C9</f>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>334.80000000000018</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1">
         <f>C10</f>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>324.00000000000017</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1">
         <f>C9</f>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>313.20000000000016</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1">
         <f>C12</f>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>302.40000000000015</v>
+        <v>84</v>
       </c>
       <c r="C14" s="1">
         <f>C13</f>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>291.60000000000014</v>
+        <v>81</v>
       </c>
       <c r="C15" s="1">
         <f>C14</f>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>280.80000000000013</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1">
         <f>C15-5</f>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>270.00000000000011</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1">
         <f>C16</f>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>259.2000000000001</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1">
         <f>C17</f>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>248.40000000000012</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1">
         <f>C16</f>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>237.60000000000011</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ref="C20:C25" si="1">C19</f>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>226.8000000000001</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1">
         <f>C20-10</f>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>216.00000000000009</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>205.20000000000007</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>194.40000000000006</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>183.60000000000005</v>
+        <v>51</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>172.80000000000004</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1">
         <f>C23</f>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>162.00000000000003</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1">
         <f>C26</f>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>151.20000000000002</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" ref="C28:C42" si="2">C27</f>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>140.4</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="2"/>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>129.6</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="2"/>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>118.79999999999998</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="2"/>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>107.99999999999999</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="2"/>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>97.199999999999989</v>
+        <v>27</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="2"/>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>86.399999999999991</v>
+        <v>24</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="2"/>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>75.599999999999994</v>
+        <v>21</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="2"/>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>64.8</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="2"/>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="2"/>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>43.2</v>
+        <v>12</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="2"/>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>32.400000000000006</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="2"/>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>21.6</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="2"/>
@@ -1660,8 +1660,8 @@
         <v>42101</v>
       </c>
       <c r="B41">
-        <f>B42+10.8</f>
-        <v>10.8</v>
+        <f>B42+3</f>
+        <v>3</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="2"/>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -154,10 +154,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:f>Sheet1!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>mmmm\ d</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>42062</c:v>
                 </c:pt>
@@ -280,137 +280,179 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>42102</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42103</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42104</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42105</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42106</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42107</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42108</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$42</c:f>
+              <c:f>Sheet1!$B$2:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>117</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>114</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>111</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>108</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>105</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="22">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="23">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="24">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="25">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="26">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="27">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="28">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="29">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="30">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="31">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="32">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="33">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="34">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="35">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="36">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="37">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="38">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="39">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="40">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="41">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="42">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="43">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="44">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="45">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="46">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -437,10 +479,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:f>Sheet1!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>mmmm\ d</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>42062</c:v>
                 </c:pt>
@@ -563,16 +605,37 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>42102</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42103</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42104</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42105</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42106</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42107</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42108</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$42</c:f>
+              <c:f>Sheet1!$C$2:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>96</c:v>
                 </c:pt>
@@ -643,58 +706,79 @@
                   <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>69.5</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>69.5</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>69.5</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>69.5</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>69.5</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>69.5</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>69.5</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>69.5</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>69.5</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>69.5</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>69.5</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>69.5</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>69.5</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>69.5</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>69.5</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>69.5</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69.5</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>69.5</c:v>
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>60.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -711,11 +795,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118243712"/>
-        <c:axId val="118245632"/>
+        <c:axId val="117388800"/>
+        <c:axId val="117390720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="118243712"/>
+        <c:axId val="117388800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,14 +828,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118245632"/>
+        <c:crossAx val="117390720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="118245632"/>
+        <c:axId val="117390720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +865,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118243712"/>
+        <c:crossAx val="117388800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1125,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B2:B41"/>
+      <selection activeCell="C42" sqref="C42:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,8 +1237,8 @@
         <v>42062</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B40" si="0">B3+3</f>
-        <v>120</v>
+        <f t="shared" ref="B2:B47" si="0">B3+3</f>
+        <v>141</v>
       </c>
       <c r="C2" s="1">
         <v>96</v>
@@ -1166,7 +1250,7 @@
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1">
         <f>C2</f>
@@ -1179,7 +1263,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1">
         <f>C3</f>
@@ -1192,7 +1276,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1">
         <f>C2-2</f>
@@ -1205,7 +1289,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1">
         <f>C5-2</f>
@@ -1218,7 +1302,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C7" s="1">
         <f>C6-120+112.5</f>
@@ -1231,7 +1315,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C8" s="1">
         <f>C7</f>
@@ -1244,7 +1328,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1">
         <f>C8</f>
@@ -1257,7 +1341,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C10" s="1">
         <f>C9</f>
@@ -1270,7 +1354,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1">
         <f>C10</f>
@@ -1283,7 +1367,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C12" s="1">
         <f>C9</f>
@@ -1297,7 +1381,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1">
         <f>C12</f>
@@ -1310,7 +1394,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C14" s="1">
         <f>C13</f>
@@ -1323,7 +1407,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C15" s="1">
         <f>C14</f>
@@ -1336,7 +1420,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1">
         <f>C15-5</f>
@@ -1349,7 +1433,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C17" s="1">
         <f>C16</f>
@@ -1362,7 +1446,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1">
         <f>C17</f>
@@ -1375,7 +1459,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C19" s="1">
         <f>C16</f>
@@ -1388,7 +1472,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ref="C20:C25" si="1">C19</f>
@@ -1401,7 +1485,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C21" s="1">
         <f>C20-10</f>
@@ -1414,7 +1498,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
@@ -1427,7 +1511,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
@@ -1440,7 +1524,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
@@ -1453,11 +1537,11 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="1"/>
-        <v>69.5</v>
+        <f>C24-9</f>
+        <v>60.5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1466,11 +1550,11 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1">
-        <f>C23</f>
-        <v>69.5</v>
+        <f>C25</f>
+        <v>60.5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1479,11 +1563,11 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1">
-        <f>C26</f>
-        <v>69.5</v>
+        <f t="shared" ref="C27:C49" si="2">C26</f>
+        <v>60.5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1492,11 +1576,11 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" ref="C28:C42" si="2">C27</f>
-        <v>69.5</v>
+        <f t="shared" si="2"/>
+        <v>60.5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1505,11 +1589,11 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="2"/>
-        <v>69.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1518,11 +1602,11 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="2"/>
-        <v>69.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1531,11 +1615,11 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="2"/>
-        <v>69.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1544,11 +1628,11 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="2"/>
-        <v>69.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1557,11 +1641,11 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="2"/>
-        <v>69.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1570,11 +1654,11 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="2"/>
-        <v>69.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1583,11 +1667,11 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="2"/>
-        <v>69.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1596,11 +1680,11 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="2"/>
-        <v>69.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1609,11 +1693,11 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="2"/>
-        <v>69.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1622,11 +1706,11 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="2"/>
-        <v>69.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1635,11 +1719,11 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="2"/>
-        <v>69.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1648,11 +1732,11 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="2"/>
-        <v>69.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1660,12 +1744,12 @@
         <v>42101</v>
       </c>
       <c r="B41">
-        <f>B42+3</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="2"/>
-        <v>69.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1673,11 +1757,102 @@
         <v>42102</v>
       </c>
       <c r="B42">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="2"/>
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="2"/>
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>42104</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="2"/>
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>42105</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="2"/>
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>42106</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="2"/>
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>42107</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="2"/>
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>42108</v>
+      </c>
+      <c r="B48">
+        <f>B49+3</f>
+        <v>3</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="2"/>
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B49">
         <v>0</v>
       </c>
-      <c r="C42" s="1">
-        <f t="shared" si="2"/>
-        <v>69.5</v>
+      <c r="C49" s="1">
+        <f t="shared" si="2"/>
+        <v>60.5</v>
       </c>
     </row>
   </sheetData>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -154,10 +154,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$49</c:f>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>mmmm\ d</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>42062</c:v>
                 </c:pt>
@@ -280,179 +280,137 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>42102</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42103</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42104</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>42105</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>42106</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>42107</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>42108</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>42109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$49</c:f>
+              <c:f>Sheet1!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>141</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>138</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>132</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>129</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>126</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>123</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>117</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>114</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>111</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>108</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>102</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>99</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>96</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>93</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>87</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>84</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>81</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>78</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>72</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>69</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>66</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>63</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>60</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>54</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>51</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>48</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>39</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>33</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>30</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>27</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -479,10 +437,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$49</c:f>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>mmmm\ d</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>42062</c:v>
                 </c:pt>
@@ -605,37 +563,16 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>42102</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42103</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42104</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>42105</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>42106</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>42107</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>42108</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>42109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$49</c:f>
+              <c:f>Sheet1!$C$2:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>96</c:v>
                 </c:pt>
@@ -757,27 +694,6 @@
                   <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>60.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>60.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>60.5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>60.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>60.5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>60.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>60.5</c:v>
-                </c:pt>
-                <c:pt idx="47">
                   <c:v>60.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1209,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:C49"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,7 +1154,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B47" si="0">B3+3</f>
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1">
         <v>96</v>
@@ -1250,7 +1166,7 @@
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1">
         <f>C2</f>
@@ -1263,7 +1179,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1">
         <f>C3</f>
@@ -1276,7 +1192,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1">
         <f>C2-2</f>
@@ -1289,7 +1205,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1">
         <f>C5-2</f>
@@ -1302,7 +1218,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1">
         <f>C6-120+112.5</f>
@@ -1315,7 +1231,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1">
         <f>C7</f>
@@ -1328,7 +1244,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1">
         <f>C8</f>
@@ -1341,7 +1257,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1">
         <f>C9</f>
@@ -1354,7 +1270,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1">
         <f>C10</f>
@@ -1367,7 +1283,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1">
         <f>C9</f>
@@ -1381,7 +1297,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1">
         <f>C12</f>
@@ -1394,7 +1310,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C14" s="1">
         <f>C13</f>
@@ -1407,7 +1323,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C15" s="1">
         <f>C14</f>
@@ -1420,7 +1336,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1">
         <f>C15-5</f>
@@ -1433,7 +1349,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1">
         <f>C16</f>
@@ -1446,7 +1362,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1">
         <f>C17</f>
@@ -1459,7 +1375,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1">
         <f>C16</f>
@@ -1472,7 +1388,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ref="C20:C25" si="1">C19</f>
@@ -1485,7 +1401,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1">
         <f>C20-10</f>
@@ -1498,7 +1414,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
@@ -1511,7 +1427,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
@@ -1524,7 +1440,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
@@ -1537,7 +1453,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C25" s="1">
         <f>C24-9</f>
@@ -1550,7 +1466,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1">
         <f>C25</f>
@@ -1563,7 +1479,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" ref="C27:C49" si="2">C26</f>
@@ -1576,7 +1492,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="2"/>
@@ -1589,7 +1505,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="2"/>
@@ -1602,7 +1518,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="2"/>
@@ -1615,7 +1531,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="2"/>
@@ -1628,7 +1544,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="2"/>
@@ -1641,7 +1557,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="2"/>
@@ -1654,7 +1570,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="2"/>
@@ -1667,7 +1583,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="2"/>
@@ -1680,7 +1596,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="2"/>
@@ -1693,7 +1609,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="2"/>
@@ -1706,7 +1622,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="2"/>
@@ -1719,7 +1635,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="2"/>
@@ -1732,7 +1648,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="2"/>
@@ -1745,7 +1661,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="2"/>
@@ -1757,100 +1673,9 @@
         <v>42102</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="2"/>
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>42103</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C43" s="1">
-        <f t="shared" si="2"/>
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>42104</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C44" s="1">
-        <f t="shared" si="2"/>
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>42105</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C45" s="1">
-        <f t="shared" si="2"/>
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>42106</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C46" s="1">
-        <f t="shared" si="2"/>
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>42107</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C47" s="1">
-        <f t="shared" si="2"/>
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>42108</v>
-      </c>
-      <c r="B48">
-        <f>B49+3</f>
-        <v>3</v>
-      </c>
-      <c r="C48" s="1">
-        <f t="shared" si="2"/>
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>42109</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49" s="1">
         <f t="shared" si="2"/>
         <v>60.5</v>
       </c>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -652,49 +652,49 @@
                   <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>60.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>60.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>60.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>60.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>60.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>60.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>60.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>60.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>60.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>60.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>60.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>60.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>60.5</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -711,11 +711,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117388800"/>
-        <c:axId val="117390720"/>
+        <c:axId val="54215808"/>
+        <c:axId val="54217728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="117388800"/>
+        <c:axId val="54215808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,14 +744,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117390720"/>
+        <c:crossAx val="54217728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="117390720"/>
+        <c:axId val="54217728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117388800"/>
+        <c:crossAx val="54215808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,7 +1153,7 @@
         <v>42062</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B47" si="0">B3+3</f>
+        <f t="shared" ref="B2:B41" si="0">B3+3</f>
         <v>120</v>
       </c>
       <c r="C2" s="1">
@@ -1391,7 +1391,7 @@
         <v>66</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" ref="C20:C25" si="1">C19</f>
+        <f t="shared" ref="C20:C24" si="1">C19</f>
         <v>79.5</v>
       </c>
     </row>
@@ -1482,7 +1482,7 @@
         <v>45</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" ref="C27:C49" si="2">C26</f>
+        <f t="shared" ref="C27:C42" si="2">C26</f>
         <v>60.5</v>
       </c>
     </row>
@@ -1495,8 +1495,8 @@
         <v>42</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="2"/>
-        <v>60.5</v>
+        <f>C27-10</f>
+        <v>50.5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" si="2"/>
-        <v>60.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" si="2"/>
-        <v>60.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" si="2"/>
-        <v>60.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" si="2"/>
-        <v>60.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" si="2"/>
-        <v>60.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" si="2"/>
-        <v>60.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" si="2"/>
-        <v>60.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" si="2"/>
-        <v>60.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" si="2"/>
-        <v>60.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" si="2"/>
-        <v>60.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" si="2"/>
-        <v>60.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" si="2"/>
-        <v>60.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" si="2"/>
-        <v>60.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" si="2"/>
-        <v>60.5</v>
+        <v>50.5</v>
       </c>
     </row>
   </sheetData>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -711,11 +711,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="54215808"/>
-        <c:axId val="54217728"/>
+        <c:axId val="111169536"/>
+        <c:axId val="111171456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="54215808"/>
+        <c:axId val="111169536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,14 +744,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54217728"/>
+        <c:crossAx val="111171456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="54217728"/>
+        <c:axId val="111171456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54215808"/>
+        <c:crossAx val="111169536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
   <fileRecoveryPr repairLoad="1"/>
 </workbook>
@@ -73,8 +76,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -688,13 +719,13 @@
                   <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>50.5</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>50.5</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>50.5</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -711,11 +742,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111169536"/>
-        <c:axId val="111171456"/>
+        <c:axId val="152783872"/>
+        <c:axId val="152790144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="111169536"/>
+        <c:axId val="152783872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,14 +775,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111171456"/>
+        <c:crossAx val="152790144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="111171456"/>
+        <c:axId val="152790144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +812,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111169536"/>
+        <c:crossAx val="152783872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1128,7 +1159,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,8 +1682,8 @@
         <v>6</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="2"/>
-        <v>50.5</v>
+        <f>C39-4.5</f>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1665,7 +1696,7 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" si="2"/>
-        <v>50.5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1677,7 +1708,7 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" si="2"/>
-        <v>50.5</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
@@ -722,10 +722,10 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>46</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>46</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -834,6 +834,439 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="142"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="42"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>The</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Multimedia Terminal </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Burn Down Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hours Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>mmmm\ d</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>42102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42109</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42112</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42113</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42114</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42115</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42116</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42117</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Burn-Down</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>mmmm\ d</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>42102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42109</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42112</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42113</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42114</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42115</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42116</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42117</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="165332480"/>
+        <c:axId val="165334016"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="165332480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="mmmm\ d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165334016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="165334016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours Left</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165332480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -848,6 +1281,41 @@
       <xdr:colOff>238124</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1158,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,8 +2163,8 @@
         <v>3</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="2"/>
-        <v>46</v>
+        <f>C40-13</f>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1708,7 +2176,7 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1719,13 +2187,255 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>42102</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B16" si="0">B3+5</f>
+        <v>80</v>
+      </c>
+      <c r="C2" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>42103</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C3" s="1">
+        <f>C2</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>42104</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C18" si="1">C3</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>42105</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>42106</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>42107</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>42108</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>42109</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>42110</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>42111</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>42112</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>42113</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>42114</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>42115</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>42116</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>42117</v>
+      </c>
+      <c r="B17">
+        <f>B18+5</f>
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>42118</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -15,7 +15,6 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -157,7 +156,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -742,11 +740,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="152783872"/>
-        <c:axId val="152790144"/>
+        <c:axId val="163011584"/>
+        <c:axId val="163030528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="152783872"/>
+        <c:axId val="163011584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,21 +766,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="mmmm\ d" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152790144"/>
+        <c:crossAx val="163030528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="152790144"/>
+        <c:axId val="163030528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,21 +802,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152783872"/>
+        <c:crossAx val="163011584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -971,55 +966,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1137,28 +1132,28 @@
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>63</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>63</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>63</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>63</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,11 +1170,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="165332480"/>
-        <c:axId val="165334016"/>
+        <c:axId val="167551360"/>
+        <c:axId val="171227776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="165332480"/>
+        <c:axId val="167551360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1208,14 +1203,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165334016"/>
+        <c:crossAx val="171227776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="165334016"/>
+        <c:axId val="171227776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,7 +1240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165332480"/>
+        <c:crossAx val="167551360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2187,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,8 +2211,8 @@
         <v>42102</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B16" si="0">B3+5</f>
-        <v>80</v>
+        <f t="shared" ref="B2:B19" si="0">B3+5</f>
+        <v>95</v>
       </c>
       <c r="C2" s="1">
         <v>63</v>
@@ -2229,7 +2224,7 @@
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1">
         <f>C2</f>
@@ -2242,10 +2237,10 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C18" si="1">C3</f>
+        <f t="shared" ref="C4:C21" si="1">C3</f>
         <v>63</v>
       </c>
     </row>
@@ -2255,7 +2250,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="1"/>
@@ -2268,7 +2263,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
@@ -2281,7 +2276,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
@@ -2294,7 +2289,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
@@ -2307,7 +2302,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
@@ -2320,7 +2315,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
@@ -2333,11 +2328,11 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="1"/>
-        <v>63</v>
+        <f>C10-6</f>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2346,11 +2341,11 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2359,11 +2354,11 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2372,11 +2367,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2385,11 +2380,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2398,11 +2393,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2410,12 +2405,12 @@
         <v>42117</v>
       </c>
       <c r="B17">
-        <f>B18+5</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2423,15 +2418,51 @@
         <v>42118</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>42119</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
+      <c r="A20" s="2">
+        <v>42120</v>
+      </c>
+      <c r="B20">
+        <f>B21+5</f>
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>42121</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -15,6 +15,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -740,11 +741,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="163011584"/>
-        <c:axId val="163030528"/>
+        <c:axId val="54666368"/>
+        <c:axId val="54668288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="163011584"/>
+        <c:axId val="54666368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,14 +773,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163030528"/>
+        <c:crossAx val="54668288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="163030528"/>
+        <c:axId val="54668288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,7 +809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163011584"/>
+        <c:crossAx val="54666368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -901,10 +902,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$18</c:f>
+              <c:f>Sheet2!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>mmmm\ d</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>42102</c:v>
                 </c:pt>
@@ -955,16 +956,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>42118</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42119</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42120</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$18</c:f>
+              <c:f>Sheet2!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>95</c:v>
                 </c:pt>
@@ -1015,6 +1025,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1040,10 +1059,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$18</c:f>
+              <c:f>Sheet2!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>mmmm\ d</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>42102</c:v>
                 </c:pt>
@@ -1094,16 +1113,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>42118</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42119</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42120</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$18</c:f>
+              <c:f>Sheet2!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>63</c:v>
                 </c:pt>
@@ -1154,6 +1182,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1170,11 +1207,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167551360"/>
-        <c:axId val="171227776"/>
+        <c:axId val="54706944"/>
+        <c:axId val="54708864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="167551360"/>
+        <c:axId val="54706944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1203,14 +1240,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171227776"/>
+        <c:crossAx val="54708864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="171227776"/>
+        <c:axId val="54708864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1240,7 +1277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167551360"/>
+        <c:crossAx val="54706944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2185,7 +2222,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,8 +2485,8 @@
         <v>5</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f>C19-21</f>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2461,7 +2498,7 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -1190,7 +1190,7 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2222,7 +2222,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2497,8 +2497,8 @@
         <v>0</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <f>C20-19</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -1190,7 +1190,7 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2222,7 +2222,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2497,8 +2497,8 @@
         <v>0</v>
       </c>
       <c r="C21" s="1">
-        <f>C20-19</f>
-        <v>17</v>
+        <f>C20-29</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -157,6 +157,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -767,6 +768,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="mmmm\ d" sourceLinked="1"/>
@@ -803,6 +805,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -816,6 +819,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1190,7 +1194,7 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1658,7 +1662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C42"/>
     </sheetView>
   </sheetViews>
@@ -2497,8 +2501,8 @@
         <v>0</v>
       </c>
       <c r="C21" s="1">
-        <f>C20-29</f>
-        <v>7</v>
+        <f>C20-36</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -15,7 +15,6 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -157,7 +156,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -742,11 +740,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="54666368"/>
-        <c:axId val="54668288"/>
+        <c:axId val="71418240"/>
+        <c:axId val="71420160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="54666368"/>
+        <c:axId val="71418240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,21 +766,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="mmmm\ d" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54668288"/>
+        <c:crossAx val="71420160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="54668288"/>
+        <c:axId val="71420160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,21 +802,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54666368"/>
+        <c:crossAx val="71418240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1211,11 +1206,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="54706944"/>
-        <c:axId val="54708864"/>
+        <c:axId val="71553024"/>
+        <c:axId val="71554944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="54706944"/>
+        <c:axId val="71553024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1244,14 +1239,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54708864"/>
+        <c:crossAx val="71554944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="54708864"/>
+        <c:axId val="71554944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1281,7 +1276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54706944"/>
+        <c:crossAx val="71553024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2281,7 +2276,7 @@
         <v>85</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C21" si="1">C3</f>
+        <f t="shared" ref="C4:C19" si="1">C3</f>
         <v>63</v>
       </c>
     </row>
